--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19110" windowHeight="12450"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19140" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
-    <sheet name="Libor" sheetId="5" r:id="rId2"/>
-    <sheet name="LiborSwapIsda" sheetId="6" r:id="rId3"/>
+    <sheet name="Hibor" sheetId="5" r:id="rId2"/>
+    <sheet name="HiborSwapIsda" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
-    <definedName name="FamilyName" localSheetId="1">Libor!$L$3</definedName>
-    <definedName name="FamilyName" localSheetId="2">LiborSwapIsda!$L$3</definedName>
-    <definedName name="FileName" localSheetId="1">Libor!$K$5</definedName>
-    <definedName name="FileName" localSheetId="2">LiborSwapIsda!$D$6</definedName>
+    <definedName name="FamilyName" localSheetId="1">Hibor!$L$3</definedName>
+    <definedName name="FamilyName" localSheetId="2">HiborSwapIsda!$L$3</definedName>
+    <definedName name="FileName" localSheetId="1">Hibor!$K$5</definedName>
+    <definedName name="FileName" localSheetId="2">HiborSwapIsda!$D$6</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$10</definedName>
-    <definedName name="FixingType" localSheetId="2">LiborSwapIsda!$L$4</definedName>
+    <definedName name="FixingType" localSheetId="2">HiborSwapIsda!$L$4</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$7</definedName>
     <definedName name="Permanent">'General Settings'!$D$6</definedName>
     <definedName name="SerializationPath">'General Settings'!$D$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="108">
   <si>
     <t>Trigger</t>
   </si>
@@ -302,36 +302,12 @@
     <t>FixingType</t>
   </si>
   <si>
-    <t>Libor</t>
-  </si>
-  <si>
-    <t>LiborSwap</t>
-  </si>
-  <si>
     <t>Isda</t>
   </si>
   <si>
-    <t>LiborYC1M</t>
-  </si>
-  <si>
-    <t>LiborYC3M</t>
-  </si>
-  <si>
-    <t>LiborYC6M</t>
-  </si>
-  <si>
-    <t>LiborYC1Y</t>
-  </si>
-  <si>
     <t>HKD</t>
   </si>
   <si>
-    <t>Actual/360</t>
-  </si>
-  <si>
-    <t>UnitedKingdom::Exchange</t>
-  </si>
-  <si>
     <t>1W</t>
   </si>
   <si>
@@ -372,6 +348,15 @@
   </si>
   <si>
     <t>dc</t>
+  </si>
+  <si>
+    <t>Hibor</t>
+  </si>
+  <si>
+    <t>HiborSwap</t>
+  </si>
+  <si>
+    <t>HongKong::HKEx</t>
   </si>
 </sst>
 </file>
@@ -724,7 +709,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -806,6 +791,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,10 +810,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,7 +1140,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1170,12 +1163,12 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1200,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -1245,7 +1238,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1286,10 +1279,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:N25"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1298,20 +1291,21 @@
     <col min="2" max="2" width="4" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7.28515625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="5.5703125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.28515625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.28515625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5703125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7.28515625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="5.5703125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.28515625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.28515625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.7109375" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="13" max="13" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.7109375" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="14" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" s="14" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1324,9 +1318,10 @@
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1340,12 +1335,13 @@
         <v>18</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1358,47 +1354,49 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="46" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>87</v>
       </c>
       <c r="K5" s="47" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
-        <v>HkdLibor.xml</v>
+        <v>HkdHibor.xml</v>
       </c>
       <c r="L5" s="51">
-        <f>IF(Serialize,_xll.ohObjectSave(L6:L23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>15</v>
-      </c>
-      <c r="M5" s="48" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L6:M23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>32</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
         <v/>
       </c>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="49" t="s">
         <v>24</v>
@@ -1408,35 +1406,43 @@
         <v>ON</v>
       </c>
       <c r="E6" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H6" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="J6" s="54" t="str">
+        <f>FamilyName&amp;"YCON"</f>
+        <v>HiborYCON</v>
       </c>
       <c r="K6" s="52" t="str">
         <f t="shared" ref="K6:K23" si="0">PROPER(Currency)&amp;FamilyName&amp;$C6</f>
-        <v>HkdLiborON</v>
-      </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="48" t="str">
+        <v>HkdHiborON</v>
+      </c>
+      <c r="L6" s="53" t="str">
+        <f>_xll.qlOvernightIndex(K6,FamilyName,E6,Currency,F6,I6,Currency&amp;J6,Permanent,Trigger,FileOverwrite)</f>
+        <v>HkdHiborON#0001</v>
+      </c>
+      <c r="M6" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K6&amp;"LastFixing_Quote",L6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHiborONLastFixing_Quote#0001</v>
+      </c>
+      <c r="N6" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="49" t="s">
         <v>25</v>
@@ -1446,35 +1452,34 @@
         <v>TN</v>
       </c>
       <c r="E7" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H7" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="J7" s="54" t="str">
+        <f t="shared" ref="J7:J12" si="2">FamilyName&amp;"YC1M"</f>
+        <v>HiborYC1M</v>
       </c>
       <c r="K7" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborTN</v>
+        <v>HkdHiborTN</v>
       </c>
       <c r="L7" s="53"/>
-      <c r="M7" s="48" t="str">
-        <f>_xll.ohRangeRetrieveError(L7)</f>
-        <v/>
-      </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="59"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="49" t="s">
         <v>26</v>
@@ -1484,75 +1489,79 @@
         <v>SN</v>
       </c>
       <c r="E8" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H8" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="J8" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>HiborYC1M</v>
       </c>
       <c r="K8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSN</v>
+        <v>HkdHiborSN</v>
       </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="48" t="str">
-        <f>_xll.ohRangeRetrieveError(L8)</f>
-        <v/>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="59"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E9" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H9" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="J9" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>HiborYC1M</v>
       </c>
       <c r="K9" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSW</v>
+        <v>HkdHiborSW</v>
       </c>
       <c r="L9" s="53" t="str">
         <f>_xll.qlIborIndex($K9,FamilyName,$D9,E9,Currency,F9,G9,H9,I9,Currency&amp;$J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSW#0013</v>
-      </c>
-      <c r="M9" s="48" t="str">
+        <v>HkdHiborSW#0001</v>
+      </c>
+      <c r="M9" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K9&amp;"LastFixing_Quote",L9,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHiborSWLastFixing_Quote#0001</v>
+      </c>
+      <c r="N9" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="49" t="s">
         <v>2</v>
@@ -1562,38 +1571,43 @@
         <v>2W</v>
       </c>
       <c r="E10" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H10" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="J10" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>HiborYC1M</v>
       </c>
       <c r="K10" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor2W</v>
+        <v>HkdHibor2W</v>
       </c>
       <c r="L10" s="53" t="str">
         <f>_xll.qlIborIndex($K10,FamilyName,$D10,E10,Currency,F10,G10,H10,I10,Currency&amp;$J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor2W#0011</v>
-      </c>
-      <c r="M10" s="48" t="str">
+        <v>HkdHibor2W#0001</v>
+      </c>
+      <c r="M10" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K10&amp;"LastFixing_Quote",L10,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor2WLastFixing_Quote#0001</v>
+      </c>
+      <c r="N10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="49" t="s">
         <v>3</v>
@@ -1603,38 +1617,43 @@
         <v>3W</v>
       </c>
       <c r="E11" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H11" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="J11" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>HiborYC1M</v>
       </c>
       <c r="K11" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3W</v>
+        <v>HkdHibor3W</v>
       </c>
       <c r="L11" s="53" t="str">
         <f>_xll.qlIborIndex($K11,FamilyName,$D11,E11,Currency,F11,G11,H11,I11,Currency&amp;$J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor3W#0011</v>
-      </c>
-      <c r="M11" s="48" t="str">
+        <v>HkdHibor3W#0001</v>
+      </c>
+      <c r="M11" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K11&amp;"LastFixing_Quote",L11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor3WLastFixing_Quote#0001</v>
+      </c>
+      <c r="N11" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="49" t="s">
         <v>4</v>
@@ -1644,38 +1663,43 @@
         <v>1M</v>
       </c>
       <c r="E12" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H12" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="J12" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>HiborYC1M</v>
       </c>
       <c r="K12" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1M</v>
+        <v>HkdHibor1M</v>
       </c>
       <c r="L12" s="53" t="str">
         <f>_xll.qlIborIndex($K12,FamilyName,$D12,E12,Currency,F12,G12,H12,I12,Currency&amp;$J12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor1M#0011</v>
-      </c>
-      <c r="M12" s="48" t="str">
+        <v>HkdHibor1M#0001</v>
+      </c>
+      <c r="M12" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K12&amp;"LastFixing_Quote",L12,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor1MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N12" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="49" t="s">
         <v>5</v>
@@ -1685,38 +1709,43 @@
         <v>2M</v>
       </c>
       <c r="E13" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H13" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="J13" s="54" t="str">
+        <f>FamilyName&amp;"YC3M"</f>
+        <v>HiborYC3M</v>
       </c>
       <c r="K13" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor2M</v>
+        <v>HkdHibor2M</v>
       </c>
       <c r="L13" s="53" t="str">
         <f>_xll.qlIborIndex($K13,FamilyName,$D13,E13,Currency,F13,G13,H13,I13,Currency&amp;$J13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor2M#0011</v>
-      </c>
-      <c r="M13" s="48" t="str">
+        <v>HkdHibor2M#0001</v>
+      </c>
+      <c r="M13" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K13&amp;"LastFixing_Quote",L13,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor2MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N13" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="49" t="s">
         <v>6</v>
@@ -1726,38 +1755,43 @@
         <v>3M</v>
       </c>
       <c r="E14" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H14" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="J14" s="54" t="str">
+        <f>FamilyName&amp;"YC3M"</f>
+        <v>HiborYC3M</v>
       </c>
       <c r="K14" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor3M</v>
+        <v>HkdHibor3M</v>
       </c>
       <c r="L14" s="53" t="str">
         <f>_xll.qlIborIndex($K14,FamilyName,$D14,E14,Currency,F14,G14,H14,I14,Currency&amp;$J14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor3M#0011</v>
-      </c>
-      <c r="M14" s="48" t="str">
+        <v>HkdHibor3M#0001</v>
+      </c>
+      <c r="M14" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K14&amp;"LastFixing_Quote",L14,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor3MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N14" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="49" t="s">
         <v>7</v>
@@ -1767,38 +1801,43 @@
         <v>4M</v>
       </c>
       <c r="E15" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H15" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="J15" s="54" t="str">
+        <f>FamilyName&amp;"YC3M"</f>
+        <v>HiborYC3M</v>
       </c>
       <c r="K15" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor4M</v>
+        <v>HkdHibor4M</v>
       </c>
       <c r="L15" s="53" t="str">
         <f>_xll.qlIborIndex($K15,FamilyName,$D15,E15,Currency,F15,G15,H15,I15,Currency&amp;$J15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor4M#0011</v>
-      </c>
-      <c r="M15" s="48" t="str">
+        <v>HkdHibor4M#0001</v>
+      </c>
+      <c r="M15" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K15&amp;"LastFixing_Quote",L15,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor4MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N15" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="49" t="s">
         <v>8</v>
@@ -1808,38 +1847,43 @@
         <v>5M</v>
       </c>
       <c r="E16" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H16" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="J16" s="54" t="str">
+        <f>FamilyName&amp;"YC6M"</f>
+        <v>HiborYC6M</v>
       </c>
       <c r="K16" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor5M</v>
+        <v>HkdHibor5M</v>
       </c>
       <c r="L16" s="53" t="str">
         <f>_xll.qlIborIndex($K16,FamilyName,$D16,E16,Currency,F16,G16,H16,I16,Currency&amp;$J16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor5M#0011</v>
-      </c>
-      <c r="M16" s="48" t="str">
+        <v>HkdHibor5M#0001</v>
+      </c>
+      <c r="M16" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K16&amp;"LastFixing_Quote",L16,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor5MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N16" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="49" t="s">
         <v>9</v>
@@ -1849,38 +1893,43 @@
         <v>6M</v>
       </c>
       <c r="E17" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H17" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="J17" s="54" t="str">
+        <f>FamilyName&amp;"YC6M"</f>
+        <v>HiborYC6M</v>
       </c>
       <c r="K17" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor6M</v>
+        <v>HkdHibor6M</v>
       </c>
       <c r="L17" s="53" t="str">
         <f>_xll.qlIborIndex($K17,FamilyName,$D17,E17,Currency,F17,G17,H17,I17,Currency&amp;$J17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor6M#0011</v>
-      </c>
-      <c r="M17" s="48" t="str">
+        <v>HkdHibor6M#0001</v>
+      </c>
+      <c r="M17" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K17&amp;"LastFixing_Quote",L17,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor6MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N17" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="49" t="s">
         <v>10</v>
@@ -1890,38 +1939,43 @@
         <v>7M</v>
       </c>
       <c r="E18" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H18" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="J18" s="54" t="str">
+        <f>FamilyName&amp;"YC6M"</f>
+        <v>HiborYC6M</v>
       </c>
       <c r="K18" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor7M</v>
+        <v>HkdHibor7M</v>
       </c>
       <c r="L18" s="53" t="str">
         <f>_xll.qlIborIndex($K18,FamilyName,$D18,E18,Currency,F18,G18,H18,I18,Currency&amp;$J18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor7M#0011</v>
-      </c>
-      <c r="M18" s="48" t="str">
+        <v>HkdHibor7M#0001</v>
+      </c>
+      <c r="M18" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K18&amp;"LastFixing_Quote",L18,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor7MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N18" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="49" t="s">
         <v>11</v>
@@ -1931,38 +1985,43 @@
         <v>8M</v>
       </c>
       <c r="E19" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H19" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="J19" s="54" t="str">
+        <f>FamilyName&amp;"YC6M"</f>
+        <v>HiborYC6M</v>
       </c>
       <c r="K19" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor8M</v>
+        <v>HkdHibor8M</v>
       </c>
       <c r="L19" s="53" t="str">
         <f>_xll.qlIborIndex($K19,FamilyName,$D19,E19,Currency,F19,G19,H19,I19,Currency&amp;$J19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor8M#0011</v>
-      </c>
-      <c r="M19" s="48" t="str">
+        <v>HkdHibor8M#0001</v>
+      </c>
+      <c r="M19" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K19&amp;"LastFixing_Quote",L19,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor8MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N19" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="49" t="s">
         <v>12</v>
@@ -1972,38 +2031,43 @@
         <v>9M</v>
       </c>
       <c r="E20" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H20" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="J20" s="54" t="str">
+        <f>FamilyName&amp;"YC1Y"</f>
+        <v>HiborYC1Y</v>
       </c>
       <c r="K20" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor9M</v>
+        <v>HkdHibor9M</v>
       </c>
       <c r="L20" s="53" t="str">
         <f>_xll.qlIborIndex($K20,FamilyName,$D20,E20,Currency,F20,G20,H20,I20,Currency&amp;$J20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor9M#0011</v>
-      </c>
-      <c r="M20" s="48" t="str">
+        <v>HkdHibor9M#0001</v>
+      </c>
+      <c r="M20" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K20&amp;"LastFixing_Quote",L20,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor9MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N20" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="49" t="s">
         <v>13</v>
@@ -2013,38 +2077,43 @@
         <v>10M</v>
       </c>
       <c r="E21" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H21" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="J21" s="54" t="str">
+        <f>FamilyName&amp;"YC1Y"</f>
+        <v>HiborYC1Y</v>
       </c>
       <c r="K21" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor10M</v>
+        <v>HkdHibor10M</v>
       </c>
       <c r="L21" s="53" t="str">
         <f>_xll.qlIborIndex($K21,FamilyName,$D21,E21,Currency,F21,G21,H21,I21,Currency&amp;$J21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor10M#0011</v>
-      </c>
-      <c r="M21" s="48" t="str">
+        <v>HkdHibor10M#0001</v>
+      </c>
+      <c r="M21" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K21&amp;"LastFixing_Quote",L21,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor10MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N21" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="49" t="s">
         <v>14</v>
@@ -2054,38 +2123,43 @@
         <v>11M</v>
       </c>
       <c r="E22" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H22" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="J22" s="54" t="str">
+        <f>FamilyName&amp;"YC1Y"</f>
+        <v>HiborYC1Y</v>
       </c>
       <c r="K22" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor11M</v>
+        <v>HkdHibor11M</v>
       </c>
       <c r="L22" s="53" t="str">
         <f>_xll.qlIborIndex($K22,FamilyName,$D22,E22,Currency,F22,G22,H22,I22,Currency&amp;$J22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor11M#0011</v>
-      </c>
-      <c r="M22" s="48" t="str">
+        <v>HkdHibor11M#0001</v>
+      </c>
+      <c r="M22" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K22&amp;"LastFixing_Quote",L22,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor11MLastFixing_Quote#0001</v>
+      </c>
+      <c r="N22" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="2:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="49" t="s">
         <v>15</v>
@@ -2095,38 +2169,43 @@
         <v>1Y</v>
       </c>
       <c r="E23" s="49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H23" s="49" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="J23" s="54" t="str">
+        <f>FamilyName&amp;"YC1Y"</f>
+        <v>HiborYC1Y</v>
       </c>
       <c r="K23" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLibor1Y</v>
+        <v>HkdHibor1Y</v>
       </c>
       <c r="L23" s="53" t="str">
         <f>_xll.qlIborIndex($K23,FamilyName,$D23,E23,Currency,F23,G23,H23,I23,Currency&amp;$J23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLibor1Y#0011</v>
-      </c>
-      <c r="M23" s="48" t="str">
+        <v>HkdHibor1Y#0001</v>
+      </c>
+      <c r="M23" s="59" t="str">
+        <f>_xll.qlLastFixingQuote(K23&amp;"LastFixing_Quote",L23,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HkdHibor1YLastFixing_Quote#0001</v>
+      </c>
+      <c r="N23" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="2:14" s="14" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="2:15" s="14" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2139,15 +2218,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:15" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F23">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I23">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
@@ -2166,7 +2243,7 @@
   <dimension ref="B1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2175,14 +2252,14 @@
     <col min="2" max="2" width="4.42578125" style="45" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="45" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.140625" style="45" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="11.28515625" style="45" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.28515625" style="45" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.5703125" style="45" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9" style="45" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="11.140625" style="45" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="24.42578125" style="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7" style="45" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.140625" style="45" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.28515625" style="45" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.28515625" style="45" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.5703125" style="45" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="13.5703125" style="45" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="11.140625" style="45" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="24.42578125" style="45" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55" style="45" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" style="45" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="45"/>
@@ -2217,8 +2294,8 @@
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="34" t="s">
-        <v>90</v>
+      <c r="L3" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="M3" s="32"/>
       <c r="N3" s="35"/>
@@ -2237,7 +2314,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M4" s="32"/>
       <c r="N4" s="35"/>
@@ -2262,28 +2339,28 @@
       <c r="C6" s="32"/>
       <c r="D6" s="36" t="str">
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
-        <v>HkdLiborSwapIsda.xml</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="58" t="s">
+        <v>HkdHiborSwapIsda.xml</v>
+      </c>
+      <c r="E6" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="F6" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>103</v>
+      <c r="G6" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="L6" s="34">
         <f>IF(Serialize,_xll.ohObjectSave(L7:L66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
@@ -2302,33 +2379,33 @@
       </c>
       <c r="D7" s="39" t="str">
         <f t="shared" ref="D7:D38" si="0">PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C7</f>
-        <v>HkdLiborSwapIsda1Y</v>
+        <v>HkdHiborSwapIsda1Y</v>
       </c>
       <c r="E7" s="39">
-        <v>2</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J7" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L7" s="40" t="str">
         <f>_xll.qlSwapIndex($D7,FamilyName&amp;FixingType,C7,E7,Currency,F7,G7,H7,I7,J7,K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda1Y#0018</v>
+        <v>HkdHiborSwapIsda1Y#0001</v>
       </c>
       <c r="M7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -2343,33 +2420,33 @@
       </c>
       <c r="D8" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda2Y</v>
+        <v>HkdHiborSwapIsda2Y</v>
       </c>
       <c r="E8" s="39">
-        <v>2</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J8" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L8" s="40" t="str">
         <f>_xll.qlSwapIndex($D8,FamilyName&amp;FixingType,C8,E8,Currency,F8,G8,H8,I8,J8,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda2Y#0016</v>
+        <v>HkdHiborSwapIsda2Y#0001</v>
       </c>
       <c r="M8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -2384,33 +2461,33 @@
       </c>
       <c r="D9" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda3Y</v>
+        <v>HkdHiborSwapIsda3Y</v>
       </c>
       <c r="E9" s="39">
-        <v>2</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J9" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L9" s="40" t="str">
         <f>_xll.qlSwapIndex($D9,FamilyName&amp;FixingType,C9,E9,Currency,F9,G9,H9,I9,J9,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda3Y#0016</v>
+        <v>HkdHiborSwapIsda3Y#0001</v>
       </c>
       <c r="M9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -2425,33 +2502,33 @@
       </c>
       <c r="D10" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda4Y</v>
+        <v>HkdHiborSwapIsda4Y</v>
       </c>
       <c r="E10" s="39">
-        <v>2</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J10" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L10" s="40" t="str">
         <f>_xll.qlSwapIndex($D10,FamilyName&amp;FixingType,C10,E10,Currency,F10,G10,H10,I10,J10,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda4Y#0016</v>
+        <v>HkdHiborSwapIsda4Y#0001</v>
       </c>
       <c r="M10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -2466,33 +2543,33 @@
       </c>
       <c r="D11" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda5Y</v>
+        <v>HkdHiborSwapIsda5Y</v>
       </c>
       <c r="E11" s="39">
-        <v>2</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J11" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L11" s="40" t="str">
         <f>_xll.qlSwapIndex($D11,FamilyName&amp;FixingType,C11,E11,Currency,F11,G11,H11,I11,J11,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda5Y#0016</v>
+        <v>HkdHiborSwapIsda5Y#0001</v>
       </c>
       <c r="M11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -2507,33 +2584,33 @@
       </c>
       <c r="D12" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda6Y</v>
+        <v>HkdHiborSwapIsda6Y</v>
       </c>
       <c r="E12" s="39">
-        <v>2</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J12" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L12" s="40" t="str">
         <f>_xll.qlSwapIndex($D12,FamilyName&amp;FixingType,C12,E12,Currency,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda6Y#0016</v>
+        <v>HkdHiborSwapIsda6Y#0001</v>
       </c>
       <c r="M12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -2548,33 +2625,33 @@
       </c>
       <c r="D13" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda7Y</v>
+        <v>HkdHiborSwapIsda7Y</v>
       </c>
       <c r="E13" s="39">
-        <v>2</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J13" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L13" s="40" t="str">
         <f>_xll.qlSwapIndex($D13,FamilyName&amp;FixingType,C13,E13,Currency,F13,G13,H13,I13,J13,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda7Y#0016</v>
+        <v>HkdHiborSwapIsda7Y#0001</v>
       </c>
       <c r="M13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -2589,33 +2666,33 @@
       </c>
       <c r="D14" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda8Y</v>
+        <v>HkdHiborSwapIsda8Y</v>
       </c>
       <c r="E14" s="39">
-        <v>2</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J14" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L14" s="40" t="str">
         <f>_xll.qlSwapIndex($D14,FamilyName&amp;FixingType,C14,E14,Currency,F14,G14,H14,I14,J14,K14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda8Y#0016</v>
+        <v>HkdHiborSwapIsda8Y#0001</v>
       </c>
       <c r="M14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -2630,33 +2707,33 @@
       </c>
       <c r="D15" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda9Y</v>
+        <v>HkdHiborSwapIsda9Y</v>
       </c>
       <c r="E15" s="39">
-        <v>2</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J15" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L15" s="40" t="str">
         <f>_xll.qlSwapIndex($D15,FamilyName&amp;FixingType,C15,E15,Currency,F15,G15,H15,I15,J15,K15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda9Y#0016</v>
+        <v>HkdHiborSwapIsda9Y#0001</v>
       </c>
       <c r="M15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -2671,33 +2748,33 @@
       </c>
       <c r="D16" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda10Y</v>
+        <v>HkdHiborSwapIsda10Y</v>
       </c>
       <c r="E16" s="39">
-        <v>2</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J16" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L16" s="40" t="str">
         <f>_xll.qlSwapIndex($D16,FamilyName&amp;FixingType,C16,E16,Currency,F16,G16,H16,I16,J16,K16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda10Y#0016</v>
+        <v>HkdHiborSwapIsda10Y#0001</v>
       </c>
       <c r="M16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -2712,33 +2789,33 @@
       </c>
       <c r="D17" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda11Y</v>
+        <v>HkdHiborSwapIsda11Y</v>
       </c>
       <c r="E17" s="39">
-        <v>2</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J17" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L17" s="40" t="str">
         <f>_xll.qlSwapIndex($D17,FamilyName&amp;FixingType,C17,E17,Currency,F17,G17,H17,I17,J17,K17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda11Y#0016</v>
+        <v>HkdHiborSwapIsda11Y#0001</v>
       </c>
       <c r="M17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -2753,33 +2830,33 @@
       </c>
       <c r="D18" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda12Y</v>
+        <v>HkdHiborSwapIsda12Y</v>
       </c>
       <c r="E18" s="39">
-        <v>2</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J18" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L18" s="40" t="str">
         <f>_xll.qlSwapIndex($D18,FamilyName&amp;FixingType,C18,E18,Currency,F18,G18,H18,I18,J18,K18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda12Y#0016</v>
+        <v>HkdHiborSwapIsda12Y#0001</v>
       </c>
       <c r="M18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -2794,33 +2871,33 @@
       </c>
       <c r="D19" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda13Y</v>
+        <v>HkdHiborSwapIsda13Y</v>
       </c>
       <c r="E19" s="39">
-        <v>2</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J19" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L19" s="40" t="str">
         <f>_xll.qlSwapIndex($D19,FamilyName&amp;FixingType,C19,E19,Currency,F19,G19,H19,I19,J19,K19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda13Y#0016</v>
+        <v>HkdHiborSwapIsda13Y#0001</v>
       </c>
       <c r="M19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -2835,33 +2912,33 @@
       </c>
       <c r="D20" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda14Y</v>
+        <v>HkdHiborSwapIsda14Y</v>
       </c>
       <c r="E20" s="39">
-        <v>2</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J20" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L20" s="40" t="str">
         <f>_xll.qlSwapIndex($D20,FamilyName&amp;FixingType,C20,E20,Currency,F20,G20,H20,I20,J20,K20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda14Y#0016</v>
+        <v>HkdHiborSwapIsda14Y#0001</v>
       </c>
       <c r="M20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -2876,33 +2953,33 @@
       </c>
       <c r="D21" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda15Y</v>
+        <v>HkdHiborSwapIsda15Y</v>
       </c>
       <c r="E21" s="39">
-        <v>2</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J21" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L21" s="40" t="str">
         <f>_xll.qlSwapIndex($D21,FamilyName&amp;FixingType,C21,E21,Currency,F21,G21,H21,I21,J21,K21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda15Y#0016</v>
+        <v>HkdHiborSwapIsda15Y#0001</v>
       </c>
       <c r="M21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -2917,33 +2994,33 @@
       </c>
       <c r="D22" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda16Y</v>
+        <v>HkdHiborSwapIsda16Y</v>
       </c>
       <c r="E22" s="39">
-        <v>2</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J22" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L22" s="40" t="str">
         <f>_xll.qlSwapIndex($D22,FamilyName&amp;FixingType,C22,E22,Currency,F22,G22,H22,I22,J22,K22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda16Y#0016</v>
+        <v>HkdHiborSwapIsda16Y#0001</v>
       </c>
       <c r="M22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -2958,33 +3035,33 @@
       </c>
       <c r="D23" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda17Y</v>
+        <v>HkdHiborSwapIsda17Y</v>
       </c>
       <c r="E23" s="39">
-        <v>2</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J23" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L23" s="40" t="str">
         <f>_xll.qlSwapIndex($D23,FamilyName&amp;FixingType,C23,E23,Currency,F23,G23,H23,I23,J23,K23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda17Y#0016</v>
+        <v>HkdHiborSwapIsda17Y#0001</v>
       </c>
       <c r="M23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -2999,33 +3076,33 @@
       </c>
       <c r="D24" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda18Y</v>
+        <v>HkdHiborSwapIsda18Y</v>
       </c>
       <c r="E24" s="39">
-        <v>2</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J24" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L24" s="40" t="str">
         <f>_xll.qlSwapIndex($D24,FamilyName&amp;FixingType,C24,E24,Currency,F24,G24,H24,I24,J24,K24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda18Y#0016</v>
+        <v>HkdHiborSwapIsda18Y#0001</v>
       </c>
       <c r="M24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -3040,33 +3117,33 @@
       </c>
       <c r="D25" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda19Y</v>
+        <v>HkdHiborSwapIsda19Y</v>
       </c>
       <c r="E25" s="39">
-        <v>2</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J25" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L25" s="40" t="str">
         <f>_xll.qlSwapIndex($D25,FamilyName&amp;FixingType,C25,E25,Currency,F25,G25,H25,I25,J25,K25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda19Y#0016</v>
+        <v>HkdHiborSwapIsda19Y#0001</v>
       </c>
       <c r="M25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -3081,33 +3158,33 @@
       </c>
       <c r="D26" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda20Y</v>
+        <v>HkdHiborSwapIsda20Y</v>
       </c>
       <c r="E26" s="39">
-        <v>2</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J26" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L26" s="40" t="str">
         <f>_xll.qlSwapIndex($D26,FamilyName&amp;FixingType,C26,E26,Currency,F26,G26,H26,I26,J26,K26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda20Y#0016</v>
+        <v>HkdHiborSwapIsda20Y#0001</v>
       </c>
       <c r="M26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -3122,33 +3199,33 @@
       </c>
       <c r="D27" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda21Y</v>
+        <v>HkdHiborSwapIsda21Y</v>
       </c>
       <c r="E27" s="39">
-        <v>2</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J27" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L27" s="40" t="str">
         <f>_xll.qlSwapIndex($D27,FamilyName&amp;FixingType,C27,E27,Currency,F27,G27,H27,I27,J27,K27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda21Y#0016</v>
+        <v>HkdHiborSwapIsda21Y#0001</v>
       </c>
       <c r="M27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -3163,33 +3240,33 @@
       </c>
       <c r="D28" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda22Y</v>
+        <v>HkdHiborSwapIsda22Y</v>
       </c>
       <c r="E28" s="39">
-        <v>2</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J28" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L28" s="40" t="str">
         <f>_xll.qlSwapIndex($D28,FamilyName&amp;FixingType,C28,E28,Currency,F28,G28,H28,I28,J28,K28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda22Y#0016</v>
+        <v>HkdHiborSwapIsda22Y#0001</v>
       </c>
       <c r="M28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -3204,33 +3281,33 @@
       </c>
       <c r="D29" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda23Y</v>
+        <v>HkdHiborSwapIsda23Y</v>
       </c>
       <c r="E29" s="39">
-        <v>2</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J29" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L29" s="40" t="str">
         <f>_xll.qlSwapIndex($D29,FamilyName&amp;FixingType,C29,E29,Currency,F29,G29,H29,I29,J29,K29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda23Y#0016</v>
+        <v>HkdHiborSwapIsda23Y#0001</v>
       </c>
       <c r="M29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -3245,33 +3322,33 @@
       </c>
       <c r="D30" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda24Y</v>
+        <v>HkdHiborSwapIsda24Y</v>
       </c>
       <c r="E30" s="39">
-        <v>2</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J30" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L30" s="40" t="str">
         <f>_xll.qlSwapIndex($D30,FamilyName&amp;FixingType,C30,E30,Currency,F30,G30,H30,I30,J30,K30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda24Y#0016</v>
+        <v>HkdHiborSwapIsda24Y#0001</v>
       </c>
       <c r="M30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -3286,33 +3363,33 @@
       </c>
       <c r="D31" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda25Y</v>
+        <v>HkdHiborSwapIsda25Y</v>
       </c>
       <c r="E31" s="39">
-        <v>2</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J31" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K31" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L31" s="40" t="str">
         <f>_xll.qlSwapIndex($D31,FamilyName&amp;FixingType,C31,E31,Currency,F31,G31,H31,I31,J31,K31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda25Y#0016</v>
+        <v>HkdHiborSwapIsda25Y#0001</v>
       </c>
       <c r="M31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -3327,33 +3404,33 @@
       </c>
       <c r="D32" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda26Y</v>
+        <v>HkdHiborSwapIsda26Y</v>
       </c>
       <c r="E32" s="39">
-        <v>2</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J32" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K32" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L32" s="40" t="str">
         <f>_xll.qlSwapIndex($D32,FamilyName&amp;FixingType,C32,E32,Currency,F32,G32,H32,I32,J32,K32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda26Y#0016</v>
+        <v>HkdHiborSwapIsda26Y#0001</v>
       </c>
       <c r="M32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -3368,33 +3445,33 @@
       </c>
       <c r="D33" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda27Y</v>
+        <v>HkdHiborSwapIsda27Y</v>
       </c>
       <c r="E33" s="39">
-        <v>2</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J33" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K33" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L33" s="40" t="str">
         <f>_xll.qlSwapIndex($D33,FamilyName&amp;FixingType,C33,E33,Currency,F33,G33,H33,I33,J33,K33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda27Y#0016</v>
+        <v>HkdHiborSwapIsda27Y#0001</v>
       </c>
       <c r="M33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -3409,33 +3486,33 @@
       </c>
       <c r="D34" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda28Y</v>
+        <v>HkdHiborSwapIsda28Y</v>
       </c>
       <c r="E34" s="39">
-        <v>2</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J34" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K34" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L34" s="40" t="str">
         <f>_xll.qlSwapIndex($D34,FamilyName&amp;FixingType,C34,E34,Currency,F34,G34,H34,I34,J34,K34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda28Y#0016</v>
+        <v>HkdHiborSwapIsda28Y#0001</v>
       </c>
       <c r="M34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -3450,33 +3527,33 @@
       </c>
       <c r="D35" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda29Y</v>
+        <v>HkdHiborSwapIsda29Y</v>
       </c>
       <c r="E35" s="39">
-        <v>2</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J35" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K35" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L35" s="40" t="str">
         <f>_xll.qlSwapIndex($D35,FamilyName&amp;FixingType,C35,E35,Currency,F35,G35,H35,I35,J35,K35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda29Y#0016</v>
+        <v>HkdHiborSwapIsda29Y#0001</v>
       </c>
       <c r="M35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -3491,33 +3568,33 @@
       </c>
       <c r="D36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda30Y</v>
+        <v>HkdHiborSwapIsda30Y</v>
       </c>
       <c r="E36" s="39">
-        <v>2</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J36" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K36" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L36" s="40" t="str">
         <f>_xll.qlSwapIndex($D36,FamilyName&amp;FixingType,C36,E36,Currency,F36,G36,H36,I36,J36,K36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda30Y#0016</v>
+        <v>HkdHiborSwapIsda30Y#0001</v>
       </c>
       <c r="M36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -3532,33 +3609,33 @@
       </c>
       <c r="D37" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda31Y</v>
+        <v>HkdHiborSwapIsda31Y</v>
       </c>
       <c r="E37" s="39">
-        <v>2</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J37" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L37" s="40" t="str">
         <f>_xll.qlSwapIndex($D37,FamilyName&amp;FixingType,C37,E37,Currency,F37,G37,H37,I37,J37,K37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda31Y#0016</v>
+        <v>HkdHiborSwapIsda31Y#0001</v>
       </c>
       <c r="M37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -3573,33 +3650,33 @@
       </c>
       <c r="D38" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>HkdLiborSwapIsda32Y</v>
+        <v>HkdHiborSwapIsda32Y</v>
       </c>
       <c r="E38" s="39">
-        <v>2</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J38" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K38" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L38" s="40" t="str">
         <f>_xll.qlSwapIndex($D38,FamilyName&amp;FixingType,C38,E38,Currency,F38,G38,H38,I38,J38,K38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda32Y#0016</v>
+        <v>HkdHiborSwapIsda32Y#0001</v>
       </c>
       <c r="M38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -3614,33 +3691,33 @@
       </c>
       <c r="D39" s="39" t="str">
         <f t="shared" ref="D39:D66" si="1">PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C39</f>
-        <v>HkdLiborSwapIsda33Y</v>
+        <v>HkdHiborSwapIsda33Y</v>
       </c>
       <c r="E39" s="39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J39" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K39" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L39" s="40" t="str">
         <f>_xll.qlSwapIndex($D39,FamilyName&amp;FixingType,C39,E39,Currency,F39,G39,H39,I39,J39,K39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda33Y#0016</v>
+        <v>HkdHiborSwapIsda33Y#0001</v>
       </c>
       <c r="M39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -3655,33 +3732,33 @@
       </c>
       <c r="D40" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda34Y</v>
+        <v>HkdHiborSwapIsda34Y</v>
       </c>
       <c r="E40" s="39">
-        <v>2</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J40" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K40" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L40" s="40" t="str">
         <f>_xll.qlSwapIndex($D40,FamilyName&amp;FixingType,C40,E40,Currency,F40,G40,H40,I40,J40,K40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda34Y#0016</v>
+        <v>HkdHiborSwapIsda34Y#0001</v>
       </c>
       <c r="M40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -3696,33 +3773,33 @@
       </c>
       <c r="D41" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda35Y</v>
+        <v>HkdHiborSwapIsda35Y</v>
       </c>
       <c r="E41" s="39">
-        <v>2</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J41" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K41" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L41" s="40" t="str">
         <f>_xll.qlSwapIndex($D41,FamilyName&amp;FixingType,C41,E41,Currency,F41,G41,H41,I41,J41,K41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda35Y#0016</v>
+        <v>HkdHiborSwapIsda35Y#0001</v>
       </c>
       <c r="M41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -3737,33 +3814,33 @@
       </c>
       <c r="D42" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda36Y</v>
+        <v>HkdHiborSwapIsda36Y</v>
       </c>
       <c r="E42" s="39">
-        <v>2</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J42" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K42" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L42" s="40" t="str">
         <f>_xll.qlSwapIndex($D42,FamilyName&amp;FixingType,C42,E42,Currency,F42,G42,H42,I42,J42,K42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda36Y#0016</v>
+        <v>HkdHiborSwapIsda36Y#0001</v>
       </c>
       <c r="M42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -3778,33 +3855,33 @@
       </c>
       <c r="D43" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda37Y</v>
+        <v>HkdHiborSwapIsda37Y</v>
       </c>
       <c r="E43" s="39">
-        <v>2</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J43" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K43" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L43" s="40" t="str">
         <f>_xll.qlSwapIndex($D43,FamilyName&amp;FixingType,C43,E43,Currency,F43,G43,H43,I43,J43,K43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda37Y#0016</v>
+        <v>HkdHiborSwapIsda37Y#0001</v>
       </c>
       <c r="M43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -3819,33 +3896,33 @@
       </c>
       <c r="D44" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda38Y</v>
+        <v>HkdHiborSwapIsda38Y</v>
       </c>
       <c r="E44" s="39">
-        <v>2</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J44" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K44" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L44" s="40" t="str">
         <f>_xll.qlSwapIndex($D44,FamilyName&amp;FixingType,C44,E44,Currency,F44,G44,H44,I44,J44,K44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda38Y#0016</v>
+        <v>HkdHiborSwapIsda38Y#0001</v>
       </c>
       <c r="M44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -3860,33 +3937,33 @@
       </c>
       <c r="D45" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda39Y</v>
+        <v>HkdHiborSwapIsda39Y</v>
       </c>
       <c r="E45" s="39">
-        <v>2</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J45" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L45" s="40" t="str">
         <f>_xll.qlSwapIndex($D45,FamilyName&amp;FixingType,C45,E45,Currency,F45,G45,H45,I45,J45,K45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda39Y#0016</v>
+        <v>HkdHiborSwapIsda39Y#0001</v>
       </c>
       <c r="M45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -3901,33 +3978,33 @@
       </c>
       <c r="D46" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda40Y</v>
+        <v>HkdHiborSwapIsda40Y</v>
       </c>
       <c r="E46" s="39">
-        <v>2</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J46" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K46" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L46" s="40" t="str">
         <f>_xll.qlSwapIndex($D46,FamilyName&amp;FixingType,C46,E46,Currency,F46,G46,H46,I46,J46,K46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda40Y#0016</v>
+        <v>HkdHiborSwapIsda40Y#0001</v>
       </c>
       <c r="M46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -3942,33 +4019,33 @@
       </c>
       <c r="D47" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda41Y</v>
+        <v>HkdHiborSwapIsda41Y</v>
       </c>
       <c r="E47" s="39">
-        <v>2</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J47" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K47" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L47" s="40" t="str">
         <f>_xll.qlSwapIndex($D47,FamilyName&amp;FixingType,C47,E47,Currency,F47,G47,H47,I47,J47,K47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda41Y#0016</v>
+        <v>HkdHiborSwapIsda41Y#0001</v>
       </c>
       <c r="M47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -3983,33 +4060,33 @@
       </c>
       <c r="D48" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda42Y</v>
+        <v>HkdHiborSwapIsda42Y</v>
       </c>
       <c r="E48" s="39">
-        <v>2</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J48" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K48" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L48" s="40" t="str">
         <f>_xll.qlSwapIndex($D48,FamilyName&amp;FixingType,C48,E48,Currency,F48,G48,H48,I48,J48,K48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda42Y#0016</v>
+        <v>HkdHiborSwapIsda42Y#0001</v>
       </c>
       <c r="M48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -4024,33 +4101,33 @@
       </c>
       <c r="D49" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda43Y</v>
+        <v>HkdHiborSwapIsda43Y</v>
       </c>
       <c r="E49" s="39">
-        <v>2</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J49" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K49" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L49" s="40" t="str">
         <f>_xll.qlSwapIndex($D49,FamilyName&amp;FixingType,C49,E49,Currency,F49,G49,H49,I49,J49,K49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda43Y#0016</v>
+        <v>HkdHiborSwapIsda43Y#0001</v>
       </c>
       <c r="M49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -4065,33 +4142,33 @@
       </c>
       <c r="D50" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda44Y</v>
+        <v>HkdHiborSwapIsda44Y</v>
       </c>
       <c r="E50" s="39">
-        <v>2</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J50" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K50" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L50" s="40" t="str">
         <f>_xll.qlSwapIndex($D50,FamilyName&amp;FixingType,C50,E50,Currency,F50,G50,H50,I50,J50,K50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda44Y#0016</v>
+        <v>HkdHiborSwapIsda44Y#0001</v>
       </c>
       <c r="M50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -4106,33 +4183,33 @@
       </c>
       <c r="D51" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda45Y</v>
+        <v>HkdHiborSwapIsda45Y</v>
       </c>
       <c r="E51" s="39">
-        <v>2</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J51" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K51" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L51" s="40" t="str">
         <f>_xll.qlSwapIndex($D51,FamilyName&amp;FixingType,C51,E51,Currency,F51,G51,H51,I51,J51,K51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda45Y#0016</v>
+        <v>HkdHiborSwapIsda45Y#0001</v>
       </c>
       <c r="M51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -4147,33 +4224,33 @@
       </c>
       <c r="D52" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda46Y</v>
+        <v>HkdHiborSwapIsda46Y</v>
       </c>
       <c r="E52" s="39">
-        <v>2</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J52" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K52" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L52" s="40" t="str">
         <f>_xll.qlSwapIndex($D52,FamilyName&amp;FixingType,C52,E52,Currency,F52,G52,H52,I52,J52,K52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda46Y#0016</v>
+        <v>HkdHiborSwapIsda46Y#0001</v>
       </c>
       <c r="M52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -4188,33 +4265,33 @@
       </c>
       <c r="D53" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda47Y</v>
+        <v>HkdHiborSwapIsda47Y</v>
       </c>
       <c r="E53" s="39">
-        <v>2</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J53" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K53" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L53" s="40" t="str">
         <f>_xll.qlSwapIndex($D53,FamilyName&amp;FixingType,C53,E53,Currency,F53,G53,H53,I53,J53,K53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda47Y#0016</v>
+        <v>HkdHiborSwapIsda47Y#0001</v>
       </c>
       <c r="M53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -4229,33 +4306,33 @@
       </c>
       <c r="D54" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda48Y</v>
+        <v>HkdHiborSwapIsda48Y</v>
       </c>
       <c r="E54" s="39">
-        <v>2</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J54" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K54" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L54" s="40" t="str">
         <f>_xll.qlSwapIndex($D54,FamilyName&amp;FixingType,C54,E54,Currency,F54,G54,H54,I54,J54,K54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda48Y#0016</v>
+        <v>HkdHiborSwapIsda48Y#0001</v>
       </c>
       <c r="M54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -4270,33 +4347,33 @@
       </c>
       <c r="D55" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda49Y</v>
+        <v>HkdHiborSwapIsda49Y</v>
       </c>
       <c r="E55" s="39">
-        <v>2</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J55" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K55" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L55" s="40" t="str">
         <f>_xll.qlSwapIndex($D55,FamilyName&amp;FixingType,C55,E55,Currency,F55,G55,H55,I55,J55,K55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda49Y#0016</v>
+        <v>HkdHiborSwapIsda49Y#0001</v>
       </c>
       <c r="M55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -4311,33 +4388,33 @@
       </c>
       <c r="D56" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda50Y</v>
+        <v>HkdHiborSwapIsda50Y</v>
       </c>
       <c r="E56" s="39">
-        <v>2</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J56" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L56" s="40" t="str">
         <f>_xll.qlSwapIndex($D56,FamilyName&amp;FixingType,C56,E56,Currency,F56,G56,H56,I56,J56,K56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda50Y#0016</v>
+        <v>HkdHiborSwapIsda50Y#0001</v>
       </c>
       <c r="M56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -4352,33 +4429,33 @@
       </c>
       <c r="D57" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda51Y</v>
+        <v>HkdHiborSwapIsda51Y</v>
       </c>
       <c r="E57" s="39">
-        <v>2</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J57" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K57" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L57" s="40" t="str">
         <f>_xll.qlSwapIndex($D57,FamilyName&amp;FixingType,C57,E57,Currency,F57,G57,H57,I57,J57,K57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda51Y#0016</v>
+        <v>HkdHiborSwapIsda51Y#0001</v>
       </c>
       <c r="M57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -4393,33 +4470,33 @@
       </c>
       <c r="D58" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda52Y</v>
+        <v>HkdHiborSwapIsda52Y</v>
       </c>
       <c r="E58" s="39">
-        <v>2</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J58" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K58" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L58" s="40" t="str">
         <f>_xll.qlSwapIndex($D58,FamilyName&amp;FixingType,C58,E58,Currency,F58,G58,H58,I58,J58,K58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda52Y#0016</v>
+        <v>HkdHiborSwapIsda52Y#0001</v>
       </c>
       <c r="M58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -4434,33 +4511,33 @@
       </c>
       <c r="D59" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda53Y</v>
+        <v>HkdHiborSwapIsda53Y</v>
       </c>
       <c r="E59" s="39">
-        <v>2</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J59" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K59" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L59" s="40" t="str">
         <f>_xll.qlSwapIndex($D59,FamilyName&amp;FixingType,C59,E59,Currency,F59,G59,H59,I59,J59,K59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda53Y#0016</v>
+        <v>HkdHiborSwapIsda53Y#0001</v>
       </c>
       <c r="M59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -4475,33 +4552,33 @@
       </c>
       <c r="D60" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda54Y</v>
+        <v>HkdHiborSwapIsda54Y</v>
       </c>
       <c r="E60" s="39">
-        <v>2</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J60" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K60" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L60" s="40" t="str">
         <f>_xll.qlSwapIndex($D60,FamilyName&amp;FixingType,C60,E60,Currency,F60,G60,H60,I60,J60,K60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda54Y#0016</v>
+        <v>HkdHiborSwapIsda54Y#0001</v>
       </c>
       <c r="M60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
@@ -4516,33 +4593,33 @@
       </c>
       <c r="D61" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda55Y</v>
+        <v>HkdHiborSwapIsda55Y</v>
       </c>
       <c r="E61" s="39">
-        <v>2</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J61" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L61" s="40" t="str">
         <f>_xll.qlSwapIndex($D61,FamilyName&amp;FixingType,C61,E61,Currency,F61,G61,H61,I61,J61,K61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda55Y#0016</v>
+        <v>HkdHiborSwapIsda55Y#0001</v>
       </c>
       <c r="M61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
@@ -4557,33 +4634,33 @@
       </c>
       <c r="D62" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda56Y</v>
+        <v>HkdHiborSwapIsda56Y</v>
       </c>
       <c r="E62" s="39">
-        <v>2</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J62" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K62" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L62" s="40" t="str">
         <f>_xll.qlSwapIndex($D62,FamilyName&amp;FixingType,C62,E62,Currency,F62,G62,H62,I62,J62,K62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda56Y#0016</v>
+        <v>HkdHiborSwapIsda56Y#0001</v>
       </c>
       <c r="M62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
@@ -4598,33 +4675,33 @@
       </c>
       <c r="D63" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda57Y</v>
+        <v>HkdHiborSwapIsda57Y</v>
       </c>
       <c r="E63" s="39">
-        <v>2</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J63" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L63" s="40" t="str">
         <f>_xll.qlSwapIndex($D63,FamilyName&amp;FixingType,C63,E63,Currency,F63,G63,H63,I63,J63,K63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda57Y#0016</v>
+        <v>HkdHiborSwapIsda57Y#0001</v>
       </c>
       <c r="M63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L63)</f>
@@ -4639,33 +4716,33 @@
       </c>
       <c r="D64" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda58Y</v>
+        <v>HkdHiborSwapIsda58Y</v>
       </c>
       <c r="E64" s="39">
-        <v>2</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J64" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K64" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L64" s="40" t="str">
         <f>_xll.qlSwapIndex($D64,FamilyName&amp;FixingType,C64,E64,Currency,F64,G64,H64,I64,J64,K64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda58Y#0016</v>
+        <v>HkdHiborSwapIsda58Y#0001</v>
       </c>
       <c r="M64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L64)</f>
@@ -4680,33 +4757,33 @@
       </c>
       <c r="D65" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda59Y</v>
+        <v>HkdHiborSwapIsda59Y</v>
       </c>
       <c r="E65" s="39">
-        <v>2</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H65" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J65" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K65" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L65" s="40" t="str">
         <f>_xll.qlSwapIndex($D65,FamilyName&amp;FixingType,C65,E65,Currency,F65,G65,H65,I65,J65,K65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda59Y#0016</v>
+        <v>HkdHiborSwapIsda59Y#0001</v>
       </c>
       <c r="M65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L65)</f>
@@ -4721,33 +4798,33 @@
       </c>
       <c r="D66" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>HkdLiborSwapIsda60Y</v>
+        <v>HkdHiborSwapIsda60Y</v>
       </c>
       <c r="E66" s="39">
-        <v>2</v>
-      </c>
-      <c r="F66" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="60" t="s">
+        <v>6</v>
       </c>
       <c r="H66" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J66" s="39" t="str">
-        <f>Libor!$K$17</f>
-        <v>HkdLibor6M</v>
+        <f>Hibor!$L$14</f>
+        <v>HkdHibor3M#0001</v>
       </c>
       <c r="K66" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L66" s="40" t="str">
         <f>_xll.qlSwapIndex($D66,FamilyName&amp;FixingType,C66,E66,Currency,F66,G66,H66,I66,J66,K66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdLiborSwapIsda60Y#0016</v>
+        <v>HkdHiborSwapIsda60Y#0001</v>
       </c>
       <c r="M66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L66)</f>
@@ -4773,12 +4850,9 @@
     <row r="68" spans="2:14" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I66">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F66">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H66">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
@@ -837,13 +837,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1158,7 +1160,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1238,7 +1240,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Hibor" sheetId="5" r:id="rId2"/>
     <sheet name="HiborSwapIsda" sheetId="6" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
     <definedName name="FamilyName" localSheetId="1">Hibor!$L$3</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="109">
   <si>
     <t>Trigger</t>
   </si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>HongKong::HKEx</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -833,24 +833,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1238,9 +1220,8 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+      <c r="D9" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1387,13 +1368,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>HkdHibor.xml</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="51" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L6:M23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>32</v>
+        <v>#NUM!</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="48" t="str">
-        <f>_xll.ohRangeRetrieveError(L5)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L5)</f>
         <v/>
       </c>
       <c r="O5" s="21"/>
@@ -2364,12 +2345,12 @@
       <c r="K6" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L7:L66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(L6)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
       <c r="N6" s="35"/>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="108">
   <si>
     <t>Trigger</t>
   </si>
@@ -354,9 +354,6 @@
   </si>
   <si>
     <t>HongKong::HKEx</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1220,8 +1217,9 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>108</v>
+      <c r="D9" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1369,13 +1367,13 @@
         <v>HkdHibor.xml</v>
       </c>
       <c r="L5" s="51" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L6:M23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L6:M23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="M5" s="22"/>
-      <c r="N5" s="48" t="str">
+      <c r="N5" s="48" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="O5" s="21"/>
     </row>
@@ -2346,12 +2344,12 @@
         <v>95</v>
       </c>
       <c r="L6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L7:L66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L7:L66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/HkdLibor.xlsx
@@ -1139,7 +1139,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1366,14 +1366,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>HkdHibor.xml</v>
       </c>
-      <c r="L5" s="51" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L6:M23,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+      <c r="L5" s="51">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L6:M23,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>32</v>
       </c>
       <c r="M5" s="22"/>
-      <c r="N5" s="48" t="e">
+      <c r="N5" s="48" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="O5" s="21"/>
     </row>
@@ -1411,11 +1411,11 @@
       </c>
       <c r="L6" s="53" t="str">
         <f>_xll.qlOvernightIndex(K6,FamilyName,E6,Currency,F6,I6,Currency&amp;J6,Permanent,Trigger,FileOverwrite)</f>
-        <v>HkdHiborON#0001</v>
+        <v>HkdHiborON#0002</v>
       </c>
       <c r="M6" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K6&amp;"LastFixing_Quote",L6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborONLastFixing_Quote#0001</v>
+        <v>HkdHiborONLastFixing_Quote#0002</v>
       </c>
       <c r="N6" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="L9" s="53" t="str">
         <f>_xll.qlIborIndex($K9,FamilyName,$D9,E9,Currency,F9,G9,H9,I9,Currency&amp;$J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSW#0001</v>
+        <v>HkdHiborSW#0002</v>
       </c>
       <c r="M9" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K9&amp;"LastFixing_Quote",L9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSWLastFixing_Quote#0001</v>
+        <v>HkdHiborSWLastFixing_Quote#0002</v>
       </c>
       <c r="N9" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -1576,11 +1576,11 @@
       </c>
       <c r="L10" s="53" t="str">
         <f>_xll.qlIborIndex($K10,FamilyName,$D10,E10,Currency,F10,G10,H10,I10,Currency&amp;$J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2W#0001</v>
+        <v>HkdHibor2W#0002</v>
       </c>
       <c r="M10" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K10&amp;"LastFixing_Quote",L10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2WLastFixing_Quote#0001</v>
+        <v>HkdHibor2WLastFixing_Quote#0002</v>
       </c>
       <c r="N10" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -1622,11 +1622,11 @@
       </c>
       <c r="L11" s="53" t="str">
         <f>_xll.qlIborIndex($K11,FamilyName,$D11,E11,Currency,F11,G11,H11,I11,Currency&amp;$J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor3W#0001</v>
+        <v>HkdHibor3W#0002</v>
       </c>
       <c r="M11" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K11&amp;"LastFixing_Quote",L11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor3WLastFixing_Quote#0001</v>
+        <v>HkdHibor3WLastFixing_Quote#0002</v>
       </c>
       <c r="N11" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -1668,11 +1668,11 @@
       </c>
       <c r="L12" s="53" t="str">
         <f>_xll.qlIborIndex($K12,FamilyName,$D12,E12,Currency,F12,G12,H12,I12,Currency&amp;$J12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1M#0001</v>
+        <v>HkdHibor1M#0002</v>
       </c>
       <c r="M12" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K12&amp;"LastFixing_Quote",L12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1MLastFixing_Quote#0001</v>
+        <v>HkdHibor1MLastFixing_Quote#0002</v>
       </c>
       <c r="N12" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -1714,11 +1714,11 @@
       </c>
       <c r="L13" s="53" t="str">
         <f>_xll.qlIborIndex($K13,FamilyName,$D13,E13,Currency,F13,G13,H13,I13,Currency&amp;$J13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2M#0001</v>
+        <v>HkdHibor2M#0002</v>
       </c>
       <c r="M13" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K13&amp;"LastFixing_Quote",L13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2MLastFixing_Quote#0001</v>
+        <v>HkdHibor2MLastFixing_Quote#0002</v>
       </c>
       <c r="N13" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="L14" s="53" t="str">
         <f>_xll.qlIborIndex($K14,FamilyName,$D14,E14,Currency,F14,G14,H14,I14,Currency&amp;$J14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="M14" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K14&amp;"LastFixing_Quote",L14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor3MLastFixing_Quote#0001</v>
+        <v>HkdHibor3MLastFixing_Quote#0002</v>
       </c>
       <c r="N14" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -1806,11 +1806,11 @@
       </c>
       <c r="L15" s="53" t="str">
         <f>_xll.qlIborIndex($K15,FamilyName,$D15,E15,Currency,F15,G15,H15,I15,Currency&amp;$J15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor4M#0001</v>
+        <v>HkdHibor4M#0002</v>
       </c>
       <c r="M15" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K15&amp;"LastFixing_Quote",L15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor4MLastFixing_Quote#0001</v>
+        <v>HkdHibor4MLastFixing_Quote#0002</v>
       </c>
       <c r="N15" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -1852,11 +1852,11 @@
       </c>
       <c r="L16" s="53" t="str">
         <f>_xll.qlIborIndex($K16,FamilyName,$D16,E16,Currency,F16,G16,H16,I16,Currency&amp;$J16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor5M#0001</v>
+        <v>HkdHibor5M#0002</v>
       </c>
       <c r="M16" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K16&amp;"LastFixing_Quote",L16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor5MLastFixing_Quote#0001</v>
+        <v>HkdHibor5MLastFixing_Quote#0002</v>
       </c>
       <c r="N16" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -1898,11 +1898,11 @@
       </c>
       <c r="L17" s="53" t="str">
         <f>_xll.qlIborIndex($K17,FamilyName,$D17,E17,Currency,F17,G17,H17,I17,Currency&amp;$J17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor6M#0001</v>
+        <v>HkdHibor6M#0002</v>
       </c>
       <c r="M17" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K17&amp;"LastFixing_Quote",L17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor6MLastFixing_Quote#0001</v>
+        <v>HkdHibor6MLastFixing_Quote#0002</v>
       </c>
       <c r="N17" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -1944,11 +1944,11 @@
       </c>
       <c r="L18" s="53" t="str">
         <f>_xll.qlIborIndex($K18,FamilyName,$D18,E18,Currency,F18,G18,H18,I18,Currency&amp;$J18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor7M#0001</v>
+        <v>HkdHibor7M#0002</v>
       </c>
       <c r="M18" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K18&amp;"LastFixing_Quote",L18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor7MLastFixing_Quote#0001</v>
+        <v>HkdHibor7MLastFixing_Quote#0002</v>
       </c>
       <c r="N18" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -1990,11 +1990,11 @@
       </c>
       <c r="L19" s="53" t="str">
         <f>_xll.qlIborIndex($K19,FamilyName,$D19,E19,Currency,F19,G19,H19,I19,Currency&amp;$J19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor8M#0001</v>
+        <v>HkdHibor8M#0002</v>
       </c>
       <c r="M19" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K19&amp;"LastFixing_Quote",L19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor8MLastFixing_Quote#0001</v>
+        <v>HkdHibor8MLastFixing_Quote#0002</v>
       </c>
       <c r="N19" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="L20" s="53" t="str">
         <f>_xll.qlIborIndex($K20,FamilyName,$D20,E20,Currency,F20,G20,H20,I20,Currency&amp;$J20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor9M#0001</v>
+        <v>HkdHibor9M#0002</v>
       </c>
       <c r="M20" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K20&amp;"LastFixing_Quote",L20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor9MLastFixing_Quote#0001</v>
+        <v>HkdHibor9MLastFixing_Quote#0002</v>
       </c>
       <c r="N20" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="L21" s="53" t="str">
         <f>_xll.qlIborIndex($K21,FamilyName,$D21,E21,Currency,F21,G21,H21,I21,Currency&amp;$J21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor10M#0001</v>
+        <v>HkdHibor10M#0002</v>
       </c>
       <c r="M21" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K21&amp;"LastFixing_Quote",L21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor10MLastFixing_Quote#0001</v>
+        <v>HkdHibor10MLastFixing_Quote#0002</v>
       </c>
       <c r="N21" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -2128,11 +2128,11 @@
       </c>
       <c r="L22" s="53" t="str">
         <f>_xll.qlIborIndex($K22,FamilyName,$D22,E22,Currency,F22,G22,H22,I22,Currency&amp;$J22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor11M#0001</v>
+        <v>HkdHibor11M#0002</v>
       </c>
       <c r="M22" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K22&amp;"LastFixing_Quote",L22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor11MLastFixing_Quote#0001</v>
+        <v>HkdHibor11MLastFixing_Quote#0002</v>
       </c>
       <c r="N22" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -2174,11 +2174,11 @@
       </c>
       <c r="L23" s="53" t="str">
         <f>_xll.qlIborIndex($K23,FamilyName,$D23,E23,Currency,F23,G23,H23,I23,Currency&amp;$J23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1Y#0001</v>
+        <v>HkdHibor1Y#0002</v>
       </c>
       <c r="M23" s="59" t="str">
         <f>_xll.qlLastFixingQuote(K23&amp;"LastFixing_Quote",L23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1YLastFixing_Quote#0001</v>
+        <v>HkdHibor1YLastFixing_Quote#0002</v>
       </c>
       <c r="N23" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -2343,13 +2343,13 @@
       <c r="K6" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L7:L66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M6" s="37" t="e">
+      <c r="L6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L7:L66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="M6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N6" s="35"/>
     </row>
@@ -2379,14 +2379,14 @@
       </c>
       <c r="J7" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K7" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L7" s="40" t="str">
         <f>_xll.qlSwapIndex($D7,FamilyName&amp;FixingType,C7,E7,Currency,F7,G7,H7,I7,J7,K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda1Y#0001</v>
+        <v>HkdHiborSwapIsda1Y#0002</v>
       </c>
       <c r="M7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -2420,14 +2420,14 @@
       </c>
       <c r="J8" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L8" s="40" t="str">
         <f>_xll.qlSwapIndex($D8,FamilyName&amp;FixingType,C8,E8,Currency,F8,G8,H8,I8,J8,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda2Y#0001</v>
+        <v>HkdHiborSwapIsda2Y#0002</v>
       </c>
       <c r="M8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -2461,14 +2461,14 @@
       </c>
       <c r="J9" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L9" s="40" t="str">
         <f>_xll.qlSwapIndex($D9,FamilyName&amp;FixingType,C9,E9,Currency,F9,G9,H9,I9,J9,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda3Y#0001</v>
+        <v>HkdHiborSwapIsda3Y#0002</v>
       </c>
       <c r="M9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -2502,14 +2502,14 @@
       </c>
       <c r="J10" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K10" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L10" s="40" t="str">
         <f>_xll.qlSwapIndex($D10,FamilyName&amp;FixingType,C10,E10,Currency,F10,G10,H10,I10,J10,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda4Y#0001</v>
+        <v>HkdHiborSwapIsda4Y#0002</v>
       </c>
       <c r="M10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -2543,14 +2543,14 @@
       </c>
       <c r="J11" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L11" s="40" t="str">
         <f>_xll.qlSwapIndex($D11,FamilyName&amp;FixingType,C11,E11,Currency,F11,G11,H11,I11,J11,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda5Y#0001</v>
+        <v>HkdHiborSwapIsda5Y#0002</v>
       </c>
       <c r="M11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -2584,14 +2584,14 @@
       </c>
       <c r="J12" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L12" s="40" t="str">
         <f>_xll.qlSwapIndex($D12,FamilyName&amp;FixingType,C12,E12,Currency,F12,G12,H12,I12,J12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda6Y#0001</v>
+        <v>HkdHiborSwapIsda6Y#0002</v>
       </c>
       <c r="M12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -2625,14 +2625,14 @@
       </c>
       <c r="J13" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K13" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L13" s="40" t="str">
         <f>_xll.qlSwapIndex($D13,FamilyName&amp;FixingType,C13,E13,Currency,F13,G13,H13,I13,J13,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda7Y#0001</v>
+        <v>HkdHiborSwapIsda7Y#0002</v>
       </c>
       <c r="M13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -2666,14 +2666,14 @@
       </c>
       <c r="J14" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L14" s="40" t="str">
         <f>_xll.qlSwapIndex($D14,FamilyName&amp;FixingType,C14,E14,Currency,F14,G14,H14,I14,J14,K14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda8Y#0001</v>
+        <v>HkdHiborSwapIsda8Y#0002</v>
       </c>
       <c r="M14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -2707,14 +2707,14 @@
       </c>
       <c r="J15" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K15" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L15" s="40" t="str">
         <f>_xll.qlSwapIndex($D15,FamilyName&amp;FixingType,C15,E15,Currency,F15,G15,H15,I15,J15,K15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda9Y#0001</v>
+        <v>HkdHiborSwapIsda9Y#0002</v>
       </c>
       <c r="M15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -2748,14 +2748,14 @@
       </c>
       <c r="J16" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L16" s="40" t="str">
         <f>_xll.qlSwapIndex($D16,FamilyName&amp;FixingType,C16,E16,Currency,F16,G16,H16,I16,J16,K16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda10Y#0001</v>
+        <v>HkdHiborSwapIsda10Y#0002</v>
       </c>
       <c r="M16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -2789,14 +2789,14 @@
       </c>
       <c r="J17" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L17" s="40" t="str">
         <f>_xll.qlSwapIndex($D17,FamilyName&amp;FixingType,C17,E17,Currency,F17,G17,H17,I17,J17,K17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda11Y#0001</v>
+        <v>HkdHiborSwapIsda11Y#0002</v>
       </c>
       <c r="M17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -2830,14 +2830,14 @@
       </c>
       <c r="J18" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L18" s="40" t="str">
         <f>_xll.qlSwapIndex($D18,FamilyName&amp;FixingType,C18,E18,Currency,F18,G18,H18,I18,J18,K18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda12Y#0001</v>
+        <v>HkdHiborSwapIsda12Y#0002</v>
       </c>
       <c r="M18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -2871,14 +2871,14 @@
       </c>
       <c r="J19" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L19" s="40" t="str">
         <f>_xll.qlSwapIndex($D19,FamilyName&amp;FixingType,C19,E19,Currency,F19,G19,H19,I19,J19,K19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda13Y#0001</v>
+        <v>HkdHiborSwapIsda13Y#0002</v>
       </c>
       <c r="M19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -2912,14 +2912,14 @@
       </c>
       <c r="J20" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L20" s="40" t="str">
         <f>_xll.qlSwapIndex($D20,FamilyName&amp;FixingType,C20,E20,Currency,F20,G20,H20,I20,J20,K20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda14Y#0001</v>
+        <v>HkdHiborSwapIsda14Y#0002</v>
       </c>
       <c r="M20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -2953,14 +2953,14 @@
       </c>
       <c r="J21" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L21" s="40" t="str">
         <f>_xll.qlSwapIndex($D21,FamilyName&amp;FixingType,C21,E21,Currency,F21,G21,H21,I21,J21,K21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda15Y#0001</v>
+        <v>HkdHiborSwapIsda15Y#0002</v>
       </c>
       <c r="M21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -2994,14 +2994,14 @@
       </c>
       <c r="J22" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L22" s="40" t="str">
         <f>_xll.qlSwapIndex($D22,FamilyName&amp;FixingType,C22,E22,Currency,F22,G22,H22,I22,J22,K22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda16Y#0001</v>
+        <v>HkdHiborSwapIsda16Y#0002</v>
       </c>
       <c r="M22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -3035,14 +3035,14 @@
       </c>
       <c r="J23" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K23" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L23" s="40" t="str">
         <f>_xll.qlSwapIndex($D23,FamilyName&amp;FixingType,C23,E23,Currency,F23,G23,H23,I23,J23,K23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda17Y#0001</v>
+        <v>HkdHiborSwapIsda17Y#0002</v>
       </c>
       <c r="M23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -3076,14 +3076,14 @@
       </c>
       <c r="J24" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K24" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L24" s="40" t="str">
         <f>_xll.qlSwapIndex($D24,FamilyName&amp;FixingType,C24,E24,Currency,F24,G24,H24,I24,J24,K24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda18Y#0001</v>
+        <v>HkdHiborSwapIsda18Y#0002</v>
       </c>
       <c r="M24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -3117,14 +3117,14 @@
       </c>
       <c r="J25" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K25" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L25" s="40" t="str">
         <f>_xll.qlSwapIndex($D25,FamilyName&amp;FixingType,C25,E25,Currency,F25,G25,H25,I25,J25,K25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda19Y#0001</v>
+        <v>HkdHiborSwapIsda19Y#0002</v>
       </c>
       <c r="M25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -3158,14 +3158,14 @@
       </c>
       <c r="J26" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K26" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L26" s="40" t="str">
         <f>_xll.qlSwapIndex($D26,FamilyName&amp;FixingType,C26,E26,Currency,F26,G26,H26,I26,J26,K26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda20Y#0001</v>
+        <v>HkdHiborSwapIsda20Y#0002</v>
       </c>
       <c r="M26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -3199,14 +3199,14 @@
       </c>
       <c r="J27" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K27" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L27" s="40" t="str">
         <f>_xll.qlSwapIndex($D27,FamilyName&amp;FixingType,C27,E27,Currency,F27,G27,H27,I27,J27,K27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda21Y#0001</v>
+        <v>HkdHiborSwapIsda21Y#0002</v>
       </c>
       <c r="M27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -3240,14 +3240,14 @@
       </c>
       <c r="J28" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K28" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L28" s="40" t="str">
         <f>_xll.qlSwapIndex($D28,FamilyName&amp;FixingType,C28,E28,Currency,F28,G28,H28,I28,J28,K28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda22Y#0001</v>
+        <v>HkdHiborSwapIsda22Y#0002</v>
       </c>
       <c r="M28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -3281,14 +3281,14 @@
       </c>
       <c r="J29" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K29" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L29" s="40" t="str">
         <f>_xll.qlSwapIndex($D29,FamilyName&amp;FixingType,C29,E29,Currency,F29,G29,H29,I29,J29,K29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda23Y#0001</v>
+        <v>HkdHiborSwapIsda23Y#0002</v>
       </c>
       <c r="M29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -3322,14 +3322,14 @@
       </c>
       <c r="J30" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K30" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L30" s="40" t="str">
         <f>_xll.qlSwapIndex($D30,FamilyName&amp;FixingType,C30,E30,Currency,F30,G30,H30,I30,J30,K30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda24Y#0001</v>
+        <v>HkdHiborSwapIsda24Y#0002</v>
       </c>
       <c r="M30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -3363,14 +3363,14 @@
       </c>
       <c r="J31" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K31" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L31" s="40" t="str">
         <f>_xll.qlSwapIndex($D31,FamilyName&amp;FixingType,C31,E31,Currency,F31,G31,H31,I31,J31,K31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda25Y#0001</v>
+        <v>HkdHiborSwapIsda25Y#0002</v>
       </c>
       <c r="M31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -3404,14 +3404,14 @@
       </c>
       <c r="J32" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K32" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L32" s="40" t="str">
         <f>_xll.qlSwapIndex($D32,FamilyName&amp;FixingType,C32,E32,Currency,F32,G32,H32,I32,J32,K32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda26Y#0001</v>
+        <v>HkdHiborSwapIsda26Y#0002</v>
       </c>
       <c r="M32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -3445,14 +3445,14 @@
       </c>
       <c r="J33" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L33" s="40" t="str">
         <f>_xll.qlSwapIndex($D33,FamilyName&amp;FixingType,C33,E33,Currency,F33,G33,H33,I33,J33,K33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda27Y#0001</v>
+        <v>HkdHiborSwapIsda27Y#0002</v>
       </c>
       <c r="M33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -3486,14 +3486,14 @@
       </c>
       <c r="J34" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K34" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L34" s="40" t="str">
         <f>_xll.qlSwapIndex($D34,FamilyName&amp;FixingType,C34,E34,Currency,F34,G34,H34,I34,J34,K34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda28Y#0001</v>
+        <v>HkdHiborSwapIsda28Y#0002</v>
       </c>
       <c r="M34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -3527,14 +3527,14 @@
       </c>
       <c r="J35" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K35" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L35" s="40" t="str">
         <f>_xll.qlSwapIndex($D35,FamilyName&amp;FixingType,C35,E35,Currency,F35,G35,H35,I35,J35,K35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda29Y#0001</v>
+        <v>HkdHiborSwapIsda29Y#0002</v>
       </c>
       <c r="M35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -3568,14 +3568,14 @@
       </c>
       <c r="J36" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K36" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L36" s="40" t="str">
         <f>_xll.qlSwapIndex($D36,FamilyName&amp;FixingType,C36,E36,Currency,F36,G36,H36,I36,J36,K36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda30Y#0001</v>
+        <v>HkdHiborSwapIsda30Y#0002</v>
       </c>
       <c r="M36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -3609,14 +3609,14 @@
       </c>
       <c r="J37" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K37" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L37" s="40" t="str">
         <f>_xll.qlSwapIndex($D37,FamilyName&amp;FixingType,C37,E37,Currency,F37,G37,H37,I37,J37,K37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda31Y#0001</v>
+        <v>HkdHiborSwapIsda31Y#0002</v>
       </c>
       <c r="M37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -3650,14 +3650,14 @@
       </c>
       <c r="J38" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K38" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L38" s="40" t="str">
         <f>_xll.qlSwapIndex($D38,FamilyName&amp;FixingType,C38,E38,Currency,F38,G38,H38,I38,J38,K38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda32Y#0001</v>
+        <v>HkdHiborSwapIsda32Y#0002</v>
       </c>
       <c r="M38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -3691,14 +3691,14 @@
       </c>
       <c r="J39" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K39" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L39" s="40" t="str">
         <f>_xll.qlSwapIndex($D39,FamilyName&amp;FixingType,C39,E39,Currency,F39,G39,H39,I39,J39,K39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda33Y#0001</v>
+        <v>HkdHiborSwapIsda33Y#0002</v>
       </c>
       <c r="M39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -3732,14 +3732,14 @@
       </c>
       <c r="J40" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K40" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L40" s="40" t="str">
         <f>_xll.qlSwapIndex($D40,FamilyName&amp;FixingType,C40,E40,Currency,F40,G40,H40,I40,J40,K40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda34Y#0001</v>
+        <v>HkdHiborSwapIsda34Y#0002</v>
       </c>
       <c r="M40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -3773,14 +3773,14 @@
       </c>
       <c r="J41" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K41" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L41" s="40" t="str">
         <f>_xll.qlSwapIndex($D41,FamilyName&amp;FixingType,C41,E41,Currency,F41,G41,H41,I41,J41,K41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda35Y#0001</v>
+        <v>HkdHiborSwapIsda35Y#0002</v>
       </c>
       <c r="M41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -3814,14 +3814,14 @@
       </c>
       <c r="J42" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K42" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L42" s="40" t="str">
         <f>_xll.qlSwapIndex($D42,FamilyName&amp;FixingType,C42,E42,Currency,F42,G42,H42,I42,J42,K42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda36Y#0001</v>
+        <v>HkdHiborSwapIsda36Y#0002</v>
       </c>
       <c r="M42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -3855,14 +3855,14 @@
       </c>
       <c r="J43" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K43" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L43" s="40" t="str">
         <f>_xll.qlSwapIndex($D43,FamilyName&amp;FixingType,C43,E43,Currency,F43,G43,H43,I43,J43,K43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda37Y#0001</v>
+        <v>HkdHiborSwapIsda37Y#0002</v>
       </c>
       <c r="M43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -3896,14 +3896,14 @@
       </c>
       <c r="J44" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K44" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L44" s="40" t="str">
         <f>_xll.qlSwapIndex($D44,FamilyName&amp;FixingType,C44,E44,Currency,F44,G44,H44,I44,J44,K44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda38Y#0001</v>
+        <v>HkdHiborSwapIsda38Y#0002</v>
       </c>
       <c r="M44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -3937,14 +3937,14 @@
       </c>
       <c r="J45" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K45" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L45" s="40" t="str">
         <f>_xll.qlSwapIndex($D45,FamilyName&amp;FixingType,C45,E45,Currency,F45,G45,H45,I45,J45,K45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda39Y#0001</v>
+        <v>HkdHiborSwapIsda39Y#0002</v>
       </c>
       <c r="M45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -3978,14 +3978,14 @@
       </c>
       <c r="J46" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K46" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L46" s="40" t="str">
         <f>_xll.qlSwapIndex($D46,FamilyName&amp;FixingType,C46,E46,Currency,F46,G46,H46,I46,J46,K46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda40Y#0001</v>
+        <v>HkdHiborSwapIsda40Y#0002</v>
       </c>
       <c r="M46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="J47" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K47" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L47" s="40" t="str">
         <f>_xll.qlSwapIndex($D47,FamilyName&amp;FixingType,C47,E47,Currency,F47,G47,H47,I47,J47,K47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda41Y#0001</v>
+        <v>HkdHiborSwapIsda41Y#0002</v>
       </c>
       <c r="M47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -4060,14 +4060,14 @@
       </c>
       <c r="J48" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K48" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L48" s="40" t="str">
         <f>_xll.qlSwapIndex($D48,FamilyName&amp;FixingType,C48,E48,Currency,F48,G48,H48,I48,J48,K48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda42Y#0001</v>
+        <v>HkdHiborSwapIsda42Y#0002</v>
       </c>
       <c r="M48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -4101,14 +4101,14 @@
       </c>
       <c r="J49" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K49" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L49" s="40" t="str">
         <f>_xll.qlSwapIndex($D49,FamilyName&amp;FixingType,C49,E49,Currency,F49,G49,H49,I49,J49,K49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda43Y#0001</v>
+        <v>HkdHiborSwapIsda43Y#0002</v>
       </c>
       <c r="M49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -4142,14 +4142,14 @@
       </c>
       <c r="J50" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K50" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L50" s="40" t="str">
         <f>_xll.qlSwapIndex($D50,FamilyName&amp;FixingType,C50,E50,Currency,F50,G50,H50,I50,J50,K50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda44Y#0001</v>
+        <v>HkdHiborSwapIsda44Y#0002</v>
       </c>
       <c r="M50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -4183,14 +4183,14 @@
       </c>
       <c r="J51" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K51" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L51" s="40" t="str">
         <f>_xll.qlSwapIndex($D51,FamilyName&amp;FixingType,C51,E51,Currency,F51,G51,H51,I51,J51,K51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda45Y#0001</v>
+        <v>HkdHiborSwapIsda45Y#0002</v>
       </c>
       <c r="M51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -4224,14 +4224,14 @@
       </c>
       <c r="J52" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K52" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L52" s="40" t="str">
         <f>_xll.qlSwapIndex($D52,FamilyName&amp;FixingType,C52,E52,Currency,F52,G52,H52,I52,J52,K52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda46Y#0001</v>
+        <v>HkdHiborSwapIsda46Y#0002</v>
       </c>
       <c r="M52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -4265,14 +4265,14 @@
       </c>
       <c r="J53" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K53" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L53" s="40" t="str">
         <f>_xll.qlSwapIndex($D53,FamilyName&amp;FixingType,C53,E53,Currency,F53,G53,H53,I53,J53,K53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda47Y#0001</v>
+        <v>HkdHiborSwapIsda47Y#0002</v>
       </c>
       <c r="M53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -4306,14 +4306,14 @@
       </c>
       <c r="J54" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K54" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L54" s="40" t="str">
         <f>_xll.qlSwapIndex($D54,FamilyName&amp;FixingType,C54,E54,Currency,F54,G54,H54,I54,J54,K54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda48Y#0001</v>
+        <v>HkdHiborSwapIsda48Y#0002</v>
       </c>
       <c r="M54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -4347,14 +4347,14 @@
       </c>
       <c r="J55" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K55" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L55" s="40" t="str">
         <f>_xll.qlSwapIndex($D55,FamilyName&amp;FixingType,C55,E55,Currency,F55,G55,H55,I55,J55,K55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda49Y#0001</v>
+        <v>HkdHiborSwapIsda49Y#0002</v>
       </c>
       <c r="M55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -4388,14 +4388,14 @@
       </c>
       <c r="J56" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K56" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L56" s="40" t="str">
         <f>_xll.qlSwapIndex($D56,FamilyName&amp;FixingType,C56,E56,Currency,F56,G56,H56,I56,J56,K56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda50Y#0001</v>
+        <v>HkdHiborSwapIsda50Y#0002</v>
       </c>
       <c r="M56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -4429,14 +4429,14 @@
       </c>
       <c r="J57" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K57" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L57" s="40" t="str">
         <f>_xll.qlSwapIndex($D57,FamilyName&amp;FixingType,C57,E57,Currency,F57,G57,H57,I57,J57,K57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda51Y#0001</v>
+        <v>HkdHiborSwapIsda51Y#0002</v>
       </c>
       <c r="M57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -4470,14 +4470,14 @@
       </c>
       <c r="J58" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K58" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L58" s="40" t="str">
         <f>_xll.qlSwapIndex($D58,FamilyName&amp;FixingType,C58,E58,Currency,F58,G58,H58,I58,J58,K58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda52Y#0001</v>
+        <v>HkdHiborSwapIsda52Y#0002</v>
       </c>
       <c r="M58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -4511,14 +4511,14 @@
       </c>
       <c r="J59" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K59" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L59" s="40" t="str">
         <f>_xll.qlSwapIndex($D59,FamilyName&amp;FixingType,C59,E59,Currency,F59,G59,H59,I59,J59,K59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda53Y#0001</v>
+        <v>HkdHiborSwapIsda53Y#0002</v>
       </c>
       <c r="M59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -4552,14 +4552,14 @@
       </c>
       <c r="J60" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K60" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L60" s="40" t="str">
         <f>_xll.qlSwapIndex($D60,FamilyName&amp;FixingType,C60,E60,Currency,F60,G60,H60,I60,J60,K60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda54Y#0001</v>
+        <v>HkdHiborSwapIsda54Y#0002</v>
       </c>
       <c r="M60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L60)</f>
@@ -4593,14 +4593,14 @@
       </c>
       <c r="J61" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K61" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L61" s="40" t="str">
         <f>_xll.qlSwapIndex($D61,FamilyName&amp;FixingType,C61,E61,Currency,F61,G61,H61,I61,J61,K61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda55Y#0001</v>
+        <v>HkdHiborSwapIsda55Y#0002</v>
       </c>
       <c r="M61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L61)</f>
@@ -4634,14 +4634,14 @@
       </c>
       <c r="J62" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K62" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L62" s="40" t="str">
         <f>_xll.qlSwapIndex($D62,FamilyName&amp;FixingType,C62,E62,Currency,F62,G62,H62,I62,J62,K62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda56Y#0001</v>
+        <v>HkdHiborSwapIsda56Y#0002</v>
       </c>
       <c r="M62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L62)</f>
@@ -4675,14 +4675,14 @@
       </c>
       <c r="J63" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K63" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L63" s="40" t="str">
         <f>_xll.qlSwapIndex($D63,FamilyName&amp;FixingType,C63,E63,Currency,F63,G63,H63,I63,J63,K63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda57Y#0001</v>
+        <v>HkdHiborSwapIsda57Y#0002</v>
       </c>
       <c r="M63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L63)</f>
@@ -4716,14 +4716,14 @@
       </c>
       <c r="J64" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K64" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L64" s="40" t="str">
         <f>_xll.qlSwapIndex($D64,FamilyName&amp;FixingType,C64,E64,Currency,F64,G64,H64,I64,J64,K64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda58Y#0001</v>
+        <v>HkdHiborSwapIsda58Y#0002</v>
       </c>
       <c r="M64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L64)</f>
@@ -4757,14 +4757,14 @@
       </c>
       <c r="J65" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K65" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L65" s="40" t="str">
         <f>_xll.qlSwapIndex($D65,FamilyName&amp;FixingType,C65,E65,Currency,F65,G65,H65,I65,J65,K65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda59Y#0001</v>
+        <v>HkdHiborSwapIsda59Y#0002</v>
       </c>
       <c r="M65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L65)</f>
@@ -4798,14 +4798,14 @@
       </c>
       <c r="J66" s="39" t="str">
         <f>Hibor!$L$14</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0002</v>
       </c>
       <c r="K66" s="39" t="s">
         <v>97</v>
       </c>
       <c r="L66" s="40" t="str">
         <f>_xll.qlSwapIndex($D66,FamilyName&amp;FixingType,C66,E66,Currency,F66,G66,H66,I66,J66,K66,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSwapIsda60Y#0001</v>
+        <v>HkdHiborSwapIsda60Y#0002</v>
       </c>
       <c r="M66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(L66)</f>
